--- a/Sufficient data/forecast_summary_B0C4BKJCWV.xlsx
+++ b/Sufficient data/forecast_summary_B0C4BKJCWV.xlsx
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
         <v>27</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
         <v>24</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
         <v>25</v>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
         <v>16</v>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>321</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>254</t>
         </is>
       </c>
     </row>
